--- a/Assignment 3/iris dataset.xlsx
+++ b/Assignment 3/iris dataset.xlsx
@@ -861,7 +861,7 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
